--- a/data/trans_orig/P44D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Estudios-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5031</v>
+        <v>4813</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02035319982975079</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1038869531263285</v>
+        <v>0.09939160945976175</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -764,19 +764,19 @@
         <v>5947</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2091</v>
+        <v>2165</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12884</v>
+        <v>13521</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09153397899541062</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03217998106135391</v>
+        <v>0.03331625459024779</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1982975158920221</v>
+        <v>0.2081072703954758</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>6933</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2989</v>
+        <v>2884</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15204</v>
+        <v>14001</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06113760636129405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02636084234405555</v>
+        <v>0.02543263564715166</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1340793483959544</v>
+        <v>0.1234653036531364</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>47438</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43393</v>
+        <v>43611</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>48424</v>
@@ -823,7 +823,7 @@
         <v>0.9796468001702492</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8961130468736712</v>
+        <v>0.900608390540238</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,19 +835,19 @@
         <v>59026</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52089</v>
+        <v>51452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62882</v>
+        <v>62808</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9084660210045894</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8017024841079778</v>
+        <v>0.7918927296045242</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9678200189386461</v>
+        <v>0.9666837454097522</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>98</v>
@@ -856,19 +856,19 @@
         <v>106464</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>98193</v>
+        <v>99396</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>110408</v>
+        <v>110513</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9388623936387059</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8659206516040456</v>
+        <v>0.8765346963468637</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9736391576559444</v>
+        <v>0.9745673643528483</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>8549</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3295</v>
+        <v>3243</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16586</v>
+        <v>17034</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1755565543288228</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06766657101468963</v>
+        <v>0.0665978394534137</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3405953929773433</v>
+        <v>0.3498002715682926</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -981,19 +981,19 @@
         <v>7852</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3130</v>
+        <v>3074</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14858</v>
+        <v>14930</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.257924050871073</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1028162511598387</v>
+        <v>0.1009823091970447</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4880840772733999</v>
+        <v>0.4904516328793008</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -1002,19 +1002,19 @@
         <v>16401</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7995</v>
+        <v>8642</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25852</v>
+        <v>25946</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2072406927021672</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1010293198175383</v>
+        <v>0.1092020310860834</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3266680372607394</v>
+        <v>0.3278583110818014</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>40147</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32110</v>
+        <v>31662</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45401</v>
+        <v>45453</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8244434456711772</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6594046070226567</v>
+        <v>0.6501997284317075</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9323334289853104</v>
+        <v>0.9334021605465863</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -1052,19 +1052,19 @@
         <v>22590</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15584</v>
+        <v>15512</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27312</v>
+        <v>27368</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.742075949128927</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5119159227265984</v>
+        <v>0.5095483671206992</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8971837488401612</v>
+        <v>0.8990176908029552</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>56</v>
@@ -1073,19 +1073,19 @@
         <v>62737</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>53286</v>
+        <v>53192</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>71143</v>
+        <v>70496</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7927593072978328</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6733319627392605</v>
+        <v>0.6721416889181986</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8989706801824617</v>
+        <v>0.8907979689139166</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>5116</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1549</v>
+        <v>1892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9899</v>
+        <v>10126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3282727892112354</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09938743514666547</v>
+        <v>0.1214119828232934</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6351212390814736</v>
+        <v>0.6497001688229938</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1198,19 +1198,19 @@
         <v>5735</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2224</v>
+        <v>2299</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9449</v>
+        <v>9432</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4591900384724161</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.178054784830096</v>
+        <v>0.1840530527259936</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7565476675514059</v>
+        <v>0.7552268098009548</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1219,19 +1219,19 @@
         <v>10851</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6016</v>
+        <v>5584</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17182</v>
+        <v>16699</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3865119202054058</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2142672800573017</v>
+        <v>0.19890849421358</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6120086226831726</v>
+        <v>0.5948026565959508</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>10470</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5687</v>
+        <v>5460</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14037</v>
+        <v>13694</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6717272107887646</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3648787609185264</v>
+        <v>0.350299831177006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9006125648533346</v>
+        <v>0.8785880171767066</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1269,19 +1269,19 @@
         <v>6754</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3040</v>
+        <v>3057</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10265</v>
+        <v>10190</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.540809961527584</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2434523324485942</v>
+        <v>0.2447731901990452</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.821945215169904</v>
+        <v>0.8159469472740065</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1290,19 +1290,19 @@
         <v>17224</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10893</v>
+        <v>11376</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22059</v>
+        <v>22491</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6134880797945942</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3879913773168261</v>
+        <v>0.4051973434040494</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7857327199426982</v>
+        <v>0.8010915057864203</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>14651</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7649</v>
+        <v>7720</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25553</v>
+        <v>24225</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1299922321537755</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06786992046948946</v>
+        <v>0.06849935987186968</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2267252243656264</v>
+        <v>0.2149385206294889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1415,19 +1415,19 @@
         <v>19534</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12295</v>
+        <v>11805</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29884</v>
+        <v>28340</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1810300488115174</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1139440531055344</v>
+        <v>0.1094011047798045</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2769529101906785</v>
+        <v>0.2626400140658866</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -1436,19 +1436,19 @@
         <v>34185</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22146</v>
+        <v>23567</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47633</v>
+        <v>48841</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1549557182023102</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.100385451102719</v>
+        <v>0.1068244659102073</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2159158485382386</v>
+        <v>0.2213916250381973</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>98055</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>87153</v>
+        <v>88481</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105057</v>
+        <v>104986</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8700077678462245</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7732747756343737</v>
+        <v>0.785061479370511</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9321300795305105</v>
+        <v>0.9315006401281303</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -1486,19 +1486,19 @@
         <v>88370</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78020</v>
+        <v>79564</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95609</v>
+        <v>96099</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8189699511884826</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.723047089809321</v>
+        <v>0.7373599859341132</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8860559468944653</v>
+        <v>0.8905988952201955</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>169</v>
@@ -1507,19 +1507,19 @@
         <v>186425</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>172977</v>
+        <v>171769</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>198464</v>
+        <v>197043</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8450442817976898</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7840841514617616</v>
+        <v>0.7786083749618027</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8996145488972813</v>
+        <v>0.8931755340897928</v>
       </c>
     </row>
     <row r="15">
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6743</v>
+        <v>5547</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02153932914672137</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1276390774670605</v>
+        <v>0.1049976406883127</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5397</v>
+        <v>6138</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02080598501064183</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09105258923031112</v>
+        <v>0.103554751713039</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8258</v>
+        <v>7208</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02115156100628806</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0736677307942875</v>
+        <v>0.06430331390789762</v>
       </c>
     </row>
     <row r="5">
@@ -1921,7 +1921,7 @@
         <v>51688</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46083</v>
+        <v>47279</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>52826</v>
@@ -1930,7 +1930,7 @@
         <v>0.9784606708532786</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8723609225329413</v>
+        <v>0.8950023593116873</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -1942,7 +1942,7 @@
         <v>58042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53878</v>
+        <v>53137</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>59275</v>
@@ -1951,7 +1951,7 @@
         <v>0.9791940149893582</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.908947410769688</v>
+        <v>0.8964452482869587</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -1963,7 +1963,7 @@
         <v>109730</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103843</v>
+        <v>104893</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>112101</v>
@@ -1972,7 +1972,7 @@
         <v>0.978848438993712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9263322692057119</v>
+        <v>0.9356966860921024</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2067,19 +2067,19 @@
         <v>10275</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5228</v>
+        <v>5207</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17261</v>
+        <v>17018</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1372841698444412</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06985009910039233</v>
+        <v>0.06957079923861095</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2306320812475304</v>
+        <v>0.2273850810232992</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2088,19 +2088,19 @@
         <v>3211</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7958</v>
+        <v>7984</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1004807529021706</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03120230777579401</v>
+        <v>0.0309364566617714</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2490143044136408</v>
+        <v>0.2498300273819985</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -2109,19 +2109,19 @@
         <v>13486</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8086</v>
+        <v>7234</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21871</v>
+        <v>22087</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1262712139936054</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07571400332146022</v>
+        <v>0.06772827479274718</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2047763396129901</v>
+        <v>0.2067972216880252</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>64568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>57582</v>
+        <v>57825</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>69615</v>
+        <v>69636</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8627158301555589</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7693679187524697</v>
+        <v>0.7726149189767009</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9301499008996077</v>
+        <v>0.9304292007613891</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -2159,19 +2159,19 @@
         <v>28748</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24001</v>
+        <v>23975</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30962</v>
+        <v>30970</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8995192470978294</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7509856955863592</v>
+        <v>0.750169972618002</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.968797692224206</v>
+        <v>0.9690635433382286</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>84</v>
@@ -2180,19 +2180,19 @@
         <v>93317</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>84932</v>
+        <v>84716</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>98717</v>
+        <v>99569</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8737287860063946</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7952236603870099</v>
+        <v>0.7932027783119746</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9242859966785402</v>
+        <v>0.9322717252072527</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>11499</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6087</v>
+        <v>6227</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17132</v>
+        <v>17328</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3973055250115759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2102995435715849</v>
+        <v>0.215156713257858</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.591918691183218</v>
+        <v>0.5986993522502934</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2305,19 +2305,19 @@
         <v>6533</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2260</v>
+        <v>2875</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10777</v>
+        <v>11151</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4047213274872027</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1400111620681556</v>
+        <v>0.1781062571469617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6675669914489213</v>
+        <v>0.6907838775124521</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2326,19 +2326,19 @@
         <v>18033</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11135</v>
+        <v>11599</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25533</v>
+        <v>24978</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3999607652512564</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2469654523553926</v>
+        <v>0.2572647236044785</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5663013891461183</v>
+        <v>0.5539978594222282</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>17444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11811</v>
+        <v>11615</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22856</v>
+        <v>22716</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6026944749884241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4080813088167819</v>
+        <v>0.4013006477497062</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7897004564284151</v>
+        <v>0.784843286742142</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -2376,19 +2376,19 @@
         <v>9610</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5366</v>
+        <v>4992</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13883</v>
+        <v>13268</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5952786725127973</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3324330085510788</v>
+        <v>0.3092161224875469</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8599888379318444</v>
+        <v>0.8218937428530384</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -2397,19 +2397,19 @@
         <v>27054</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19554</v>
+        <v>20109</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>33952</v>
+        <v>33488</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6000392347487437</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4336986108538823</v>
+        <v>0.4460021405777717</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7530345476446078</v>
+        <v>0.7427352763955215</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>22912</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14926</v>
+        <v>15475</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33317</v>
+        <v>34037</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1462973963694393</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09530772971890139</v>
+        <v>0.09880945176744306</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2127380704690135</v>
+        <v>0.217331088355592</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -2522,19 +2522,19 @@
         <v>10978</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5570</v>
+        <v>5416</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18904</v>
+        <v>19084</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1022382754308385</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05186960881877589</v>
+        <v>0.05043523162411096</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1760502279867747</v>
+        <v>0.1777291864369024</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -2543,19 +2543,19 @@
         <v>33890</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23579</v>
+        <v>23773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46192</v>
+        <v>46986</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1283763518370148</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08931613999490702</v>
+        <v>0.09005275681075454</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1749744720205847</v>
+        <v>0.1779844635655774</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>133700</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>123295</v>
+        <v>122575</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>141686</v>
+        <v>141137</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8537026036305607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7872619295309858</v>
+        <v>0.7826689116444079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9046922702810984</v>
+        <v>0.9011905482325568</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>82</v>
@@ -2593,19 +2593,19 @@
         <v>96400</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>88474</v>
+        <v>88294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101808</v>
+        <v>101962</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8977617245691615</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8239497720132253</v>
+        <v>0.8222708135630977</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9481303911812241</v>
+        <v>0.9495647683758891</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>210</v>
@@ -2614,19 +2614,19 @@
         <v>230101</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>217799</v>
+        <v>217005</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>240412</v>
+        <v>240218</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8716236481629852</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8250255279794152</v>
+        <v>0.8220155364344226</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9106838600050929</v>
+        <v>0.9099472431892454</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>4495</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1646</v>
+        <v>1922</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9463</v>
+        <v>9367</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02976633196254343</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01090203708745361</v>
+        <v>0.01272533658192264</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06266551334972187</v>
+        <v>0.06202936553680757</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2978,19 +2978,19 @@
         <v>1884</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4653</v>
+        <v>4870</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01001522300774559</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002306870882583341</v>
+        <v>0.002322153088151773</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02474156166295914</v>
+        <v>0.02589590261310263</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2999,19 +2999,19 @@
         <v>6378</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3301</v>
+        <v>3195</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11106</v>
+        <v>11687</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01881136644910541</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009736615246765987</v>
+        <v>0.009423692263337556</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03275500356753167</v>
+        <v>0.03446790406135734</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>146511</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>141543</v>
+        <v>141639</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149360</v>
+        <v>149084</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9702336680374565</v>
+        <v>0.9702336680374566</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9373344866502783</v>
+        <v>0.9379706344631924</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9890979629125465</v>
+        <v>0.9872746634180775</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>324</v>
@@ -3049,19 +3049,19 @@
         <v>186183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>183414</v>
+        <v>183197</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>187633</v>
+        <v>187630</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9899847769922542</v>
+        <v>0.9899847769922544</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.975258438337041</v>
+        <v>0.9741040973868972</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9976931291174167</v>
+        <v>0.9976778469118484</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>523</v>
@@ -3070,19 +3070,19 @@
         <v>332696</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>327968</v>
+        <v>327387</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>335773</v>
+        <v>335879</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9811886335508946</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9672449964324681</v>
+        <v>0.9655320959386421</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9902633847532337</v>
+        <v>0.9905763077366623</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>24388</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16954</v>
+        <v>16183</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34437</v>
+        <v>33982</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08385834092764653</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05829690834814852</v>
+        <v>0.0556457406634937</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1184116536322601</v>
+        <v>0.1168454342095603</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -3195,19 +3195,19 @@
         <v>16694</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11481</v>
+        <v>11490</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23290</v>
+        <v>23542</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06819045455133076</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04689863417470028</v>
+        <v>0.04693470623266337</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09513266887226221</v>
+        <v>0.0961643879105282</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -3216,19 +3216,19 @@
         <v>41082</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31500</v>
+        <v>29893</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53467</v>
+        <v>51726</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07669732875377644</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05880729457423425</v>
+        <v>0.05580770615578859</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.099819469421915</v>
+        <v>0.09656871982106184</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>266438</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>256389</v>
+        <v>256844</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>273872</v>
+        <v>274643</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9161416590723535</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8815883463677399</v>
+        <v>0.8831545657904396</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9417030916518514</v>
+        <v>0.9443542593365066</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>385</v>
@@ -3266,19 +3266,19 @@
         <v>228121</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>221525</v>
+        <v>221273</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>233334</v>
+        <v>233325</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9318095454486692</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9048673311277378</v>
+        <v>0.9038356120894723</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9531013658252997</v>
+        <v>0.9530652937673367</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>703</v>
@@ -3287,19 +3287,19 @@
         <v>494559</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>482174</v>
+        <v>483915</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>504141</v>
+        <v>505748</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9233026712462237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9001805305780854</v>
+        <v>0.9034312801789389</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9411927054257659</v>
+        <v>0.9441922938442115</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>27490</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19301</v>
+        <v>19961</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36842</v>
+        <v>36985</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2112935665271408</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.148352951978616</v>
+        <v>0.153421335627635</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2831751901152055</v>
+        <v>0.2842735649473795</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -3412,19 +3412,19 @@
         <v>19929</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14258</v>
+        <v>14631</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26557</v>
+        <v>26873</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2051956428233576</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1468091267004278</v>
+        <v>0.1506528462515219</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2734447264849229</v>
+        <v>0.2766992417286545</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -3433,19 +3433,19 @@
         <v>47419</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37007</v>
+        <v>37210</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58048</v>
+        <v>58341</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2086871858890603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1628676092084851</v>
+        <v>0.163759285523013</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2554654240073455</v>
+        <v>0.2567571343363505</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>102613</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93261</v>
+        <v>93118</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110802</v>
+        <v>110142</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7887064334728591</v>
+        <v>0.7887064334728593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7168248098847945</v>
+        <v>0.7157264350526206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8516470480213839</v>
+        <v>0.8465786643723652</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>126</v>
@@ -3483,19 +3483,19 @@
         <v>77191</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>70563</v>
+        <v>70247</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>82862</v>
+        <v>82489</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7948043571766426</v>
+        <v>0.7948043571766424</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.726555273515077</v>
+        <v>0.7233007582713453</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8531908732995722</v>
+        <v>0.849347153748478</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>253</v>
@@ -3504,19 +3504,19 @@
         <v>179804</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>169175</v>
+        <v>168882</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>190216</v>
+        <v>190013</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7913128141109397</v>
+        <v>0.7913128141109398</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7445345759926547</v>
+        <v>0.7432428656636495</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8371323907915149</v>
+        <v>0.8362407144769869</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>56373</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44458</v>
+        <v>43771</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71360</v>
+        <v>71922</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09856538145520727</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07773304711893513</v>
+        <v>0.07653211104443329</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1247692070027044</v>
+        <v>0.125751202856154</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -3629,19 +3629,19 @@
         <v>38506</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30281</v>
+        <v>30421</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48752</v>
+        <v>48255</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07265279448669638</v>
+        <v>0.0726527944866964</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05713289448839835</v>
+        <v>0.05739803517462967</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09198426324093016</v>
+        <v>0.09104620030575747</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -3650,19 +3650,19 @@
         <v>94879</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79363</v>
+        <v>79839</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112407</v>
+        <v>111809</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08610212805748181</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07202146540808171</v>
+        <v>0.07245334802297343</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1020084714352389</v>
+        <v>0.1014658655881694</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>515562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>500575</v>
+        <v>500013</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>527477</v>
+        <v>528164</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9014346185447928</v>
+        <v>0.9014346185447926</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8752307929972956</v>
+        <v>0.8742487971438461</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9222669528810646</v>
+        <v>0.9234678889555668</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>835</v>
@@ -3700,19 +3700,19 @@
         <v>491496</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>481250</v>
+        <v>481747</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>499721</v>
+        <v>499581</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9273472055133037</v>
+        <v>0.9273472055133039</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.908015736759068</v>
+        <v>0.9089537996942423</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9428671055116009</v>
+        <v>0.9426019648253705</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1479</v>
@@ -3721,19 +3721,19 @@
         <v>1007058</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>989530</v>
+        <v>990128</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1022574</v>
+        <v>1022098</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9138978719425183</v>
+        <v>0.9138978719425184</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8979915285647612</v>
+        <v>0.8985341344118308</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9279785345919184</v>
+        <v>0.9275466519770266</v>
       </c>
     </row>
     <row r="15">
